--- a/data/Node_data.xlsx
+++ b/data/Node_data.xlsx
@@ -28,7 +28,1447 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="976">
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
   <si>
     <t>Frequency</t>
   </si>
@@ -1567,7 +3007,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -1576,28 +3016,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>432</v>
+        <v>912</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>433</v>
+        <v>913</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>434</v>
+        <v>914</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>435</v>
+        <v>915</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>436</v>
+        <v>916</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>437</v>
+        <v>917</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>438</v>
+        <v>918</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>439</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2">
@@ -1611,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="0">
-        <v>1.7902417715976654e-06</v>
+        <v>0.0017897734102368724</v>
       </c>
       <c r="I2" s="0">
         <v>2.5</v>
@@ -1637,7 +3077,7 @@
         <v>5.75</v>
       </c>
       <c r="G3" s="0">
-        <v>9.1577869786689131e-07</v>
+        <v>0.00091570646360680092</v>
       </c>
       <c r="I3" s="0">
         <v>0.75</v>
@@ -1663,7 +3103,7 @@
         <v>10.5</v>
       </c>
       <c r="G4" s="0">
-        <v>1.9915721026896346e-07</v>
+        <v>0.00019915209451342234</v>
       </c>
       <c r="I4" s="0">
         <v>4</v>
@@ -1689,7 +3129,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="0">
-        <v>1.8964488460277599e-07</v>
+        <v>0.00018959033716911731</v>
       </c>
       <c r="I5" s="0">
         <v>5.75</v>
@@ -1716,7 +3156,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -1725,28 +3165,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>440</v>
+        <v>920</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>441</v>
+        <v>921</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>442</v>
+        <v>922</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>443</v>
+        <v>923</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>444</v>
+        <v>924</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>445</v>
+        <v>925</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>446</v>
+        <v>926</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>447</v>
+        <v>927</v>
       </c>
     </row>
     <row r="2">
@@ -1760,7 +3200,7 @@
         <v>2.5</v>
       </c>
       <c r="G2" s="0">
-        <v>8.2661656769008559e-07</v>
+        <v>0.00082661559166685294</v>
       </c>
       <c r="I2" s="0">
         <v>2.75</v>
@@ -1786,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="0">
-        <v>4.1748636680860874e-07</v>
+        <v>0.0004174855317798099</v>
       </c>
       <c r="I3" s="0">
         <v>19.25</v>
@@ -1812,7 +3252,7 @@
         <v>0.25</v>
       </c>
       <c r="G4" s="0">
-        <v>3.82291362559234e-07</v>
+        <v>0.00038229088954239339</v>
       </c>
       <c r="I4" s="0">
         <v>4.75</v>
@@ -1838,7 +3278,7 @@
         <v>0.75</v>
       </c>
       <c r="G5" s="0">
-        <v>3.462228379840282e-07</v>
+        <v>0.00034622224390559123</v>
       </c>
       <c r="I5" s="0">
         <v>4</v>
@@ -1865,7 +3305,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -1874,28 +3314,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>448</v>
+        <v>928</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>449</v>
+        <v>929</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>450</v>
+        <v>930</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>451</v>
+        <v>931</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>452</v>
+        <v>932</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>453</v>
+        <v>933</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>454</v>
+        <v>934</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>455</v>
+        <v>935</v>
       </c>
     </row>
     <row r="2">
@@ -1909,7 +3349,7 @@
         <v>2.5</v>
       </c>
       <c r="G2" s="0">
-        <v>1.0058337435781549e-06</v>
+        <v>0.0010058320198865775</v>
       </c>
       <c r="I2" s="0">
         <v>2.75</v>
@@ -1935,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="0">
-        <v>4.1352173671617748e-07</v>
+        <v>0.00041352070424014798</v>
       </c>
       <c r="I3" s="0">
         <v>19</v>
@@ -1961,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="0">
-        <v>3.2347014988728097e-07</v>
+        <v>0.00032346943499120864</v>
       </c>
       <c r="I4" s="0">
         <v>4.5</v>
@@ -1987,7 +3427,7 @@
         <v>3.5</v>
       </c>
       <c r="G5" s="0">
-        <v>2.4221742354939338e-07</v>
+        <v>0.00024221651145726536</v>
       </c>
       <c r="I5" s="0">
         <v>5</v>
@@ -2014,7 +3454,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -2023,28 +3463,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>456</v>
+        <v>936</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>457</v>
+        <v>937</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>458</v>
+        <v>938</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>459</v>
+        <v>939</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>460</v>
+        <v>940</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>461</v>
+        <v>941</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>462</v>
+        <v>942</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>463</v>
+        <v>943</v>
       </c>
     </row>
     <row r="2">
@@ -2058,7 +3498,7 @@
         <v>1.25</v>
       </c>
       <c r="G2" s="0">
-        <v>9.6815311675753086e-07</v>
+        <v>0.00096815247935884039</v>
       </c>
       <c r="I2" s="0">
         <v>1.25</v>
@@ -2084,7 +3524,7 @@
         <v>2.5</v>
       </c>
       <c r="G3" s="0">
-        <v>1.2259871272565886e-07</v>
+        <v>0.00012259858831130976</v>
       </c>
       <c r="I3" s="0">
         <v>2.5</v>
@@ -2110,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="0">
-        <v>1.1020658954310504e-07</v>
+        <v>0.00011020651838781701</v>
       </c>
       <c r="I4" s="0">
         <v>4.25</v>
@@ -2136,7 +3576,7 @@
         <v>4.25</v>
       </c>
       <c r="G5" s="0">
-        <v>9.4305878907942072e-08</v>
+        <v>9.4305787452165742e-05</v>
       </c>
       <c r="I5" s="0">
         <v>9.75</v>
@@ -2163,7 +3603,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -2172,28 +3612,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>464</v>
+        <v>944</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>465</v>
+        <v>945</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>466</v>
+        <v>946</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>467</v>
+        <v>947</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>468</v>
+        <v>948</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>469</v>
+        <v>949</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>470</v>
+        <v>950</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>471</v>
+        <v>951</v>
       </c>
     </row>
     <row r="2">
@@ -2207,7 +3647,7 @@
         <v>1.25</v>
       </c>
       <c r="G2" s="0">
-        <v>1.1478672761300777e-06</v>
+        <v>0.0011478661584584853</v>
       </c>
       <c r="I2" s="0">
         <v>1.25</v>
@@ -2233,7 +3673,7 @@
         <v>2.25</v>
       </c>
       <c r="G3" s="0">
-        <v>1.3282614377068316e-07</v>
+        <v>0.0001328258867166649</v>
       </c>
       <c r="I3" s="0">
         <v>2.5</v>
@@ -2259,7 +3699,7 @@
         <v>2.75</v>
       </c>
       <c r="G4" s="0">
-        <v>1.2957374578970811e-07</v>
+        <v>0.00012957367417400014</v>
       </c>
       <c r="I4" s="0">
         <v>9.5</v>
@@ -2285,7 +3725,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="0">
-        <v>7.4622905360846602e-08</v>
+        <v>7.4622799814315382e-05</v>
       </c>
       <c r="I5" s="0">
         <v>4.25</v>
@@ -2312,7 +3752,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -2321,28 +3761,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>472</v>
+        <v>952</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>473</v>
+        <v>953</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>474</v>
+        <v>954</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>475</v>
+        <v>955</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>476</v>
+        <v>956</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>477</v>
+        <v>957</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>478</v>
+        <v>958</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>479</v>
+        <v>959</v>
       </c>
     </row>
     <row r="2">
@@ -2356,7 +3796,7 @@
         <v>1.25</v>
       </c>
       <c r="G2" s="0">
-        <v>8.2775827315797776e-07</v>
+        <v>0.00082775741144902745</v>
       </c>
       <c r="I2" s="0">
         <v>1.25</v>
@@ -2382,7 +3822,7 @@
         <v>0.25</v>
       </c>
       <c r="G3" s="0">
-        <v>5.0202487787378876e-07</v>
+        <v>0.00050202374962067856</v>
       </c>
       <c r="I3" s="0">
         <v>2.5</v>
@@ -2408,7 +3848,7 @@
         <v>2.5</v>
       </c>
       <c r="G4" s="0">
-        <v>1.063742365438803e-07</v>
+        <v>0.0001063741982096839</v>
       </c>
       <c r="I4" s="0">
         <v>4.25</v>
@@ -2434,7 +3874,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="0">
-        <v>1.0204892023412489e-07</v>
+        <v>0.00010204875242523357</v>
       </c>
       <c r="I5" s="0">
         <v>9.75</v>
@@ -2461,7 +3901,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -2470,28 +3910,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>481</v>
+        <v>961</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>482</v>
+        <v>962</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>483</v>
+        <v>963</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>484</v>
+        <v>964</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>485</v>
+        <v>965</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>486</v>
+        <v>966</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>487</v>
+        <v>967</v>
       </c>
     </row>
     <row r="2">
@@ -2505,7 +3945,7 @@
         <v>1.25</v>
       </c>
       <c r="G2" s="0">
-        <v>1.0820812156661483e-06</v>
+        <v>0.0010820801748295519</v>
       </c>
       <c r="I2" s="0">
         <v>1.25</v>
@@ -2531,7 +3971,7 @@
         <v>2.5</v>
       </c>
       <c r="G3" s="0">
-        <v>1.2293595515932603e-07</v>
+        <v>0.00012293569962300914</v>
       </c>
       <c r="I3" s="0">
         <v>2.5</v>
@@ -2557,7 +3997,7 @@
         <v>4.25</v>
       </c>
       <c r="G4" s="0">
-        <v>5.5954372311921007e-08</v>
+        <v>5.5954224116504746e-05</v>
       </c>
       <c r="I4" s="0">
         <v>9.5</v>
@@ -2583,7 +4023,7 @@
         <v>5.5</v>
       </c>
       <c r="G5" s="0">
-        <v>4.7110855331467651e-08</v>
+        <v>4.7110771846666748e-05</v>
       </c>
       <c r="I5" s="0">
         <v>4.25</v>
@@ -2610,7 +4050,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -2619,28 +4059,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>488</v>
+        <v>968</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>489</v>
+        <v>969</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>490</v>
+        <v>970</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>491</v>
+        <v>971</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>492</v>
+        <v>972</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>493</v>
+        <v>973</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>494</v>
+        <v>974</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>495</v>
+        <v>975</v>
       </c>
     </row>
     <row r="2">
@@ -2654,7 +4094,7 @@
         <v>1.25</v>
       </c>
       <c r="G2" s="0">
-        <v>7.9052015900999526e-07</v>
+        <v>0.00079051966921753571</v>
       </c>
       <c r="I2" s="0">
         <v>1.25</v>
@@ -2680,7 +4120,7 @@
         <v>2.5</v>
       </c>
       <c r="G3" s="0">
-        <v>9.4822855074543007e-08</v>
+        <v>9.4822809700646451e-05</v>
       </c>
       <c r="I3" s="0">
         <v>2.5</v>
@@ -2706,7 +4146,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="0">
-        <v>9.0826787985687256e-08</v>
+        <v>9.0826697501477705e-05</v>
       </c>
       <c r="I4" s="0">
         <v>4.25</v>
@@ -2732,7 +4172,7 @@
         <v>4.25</v>
       </c>
       <c r="G5" s="0">
-        <v>8.2132734681362964e-08</v>
+        <v>8.213270224105901e-05</v>
       </c>
       <c r="I5" s="0">
         <v>9.75</v>
@@ -2759,7 +4199,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -2768,28 +4208,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>376</v>
+        <v>856</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>377</v>
+        <v>857</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>378</v>
+        <v>858</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>379</v>
+        <v>859</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>380</v>
+        <v>860</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>381</v>
+        <v>861</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>382</v>
+        <v>862</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>383</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
@@ -2803,7 +4243,7 @@
         <v>1.25</v>
       </c>
       <c r="G2" s="0">
-        <v>7.4743148706518216e-07</v>
+        <v>0.00074743095516309553</v>
       </c>
       <c r="I2" s="0">
         <v>1.25</v>
@@ -2829,7 +4269,7 @@
         <v>2.5</v>
       </c>
       <c r="G3" s="0">
-        <v>9.4457137069990826e-08</v>
+        <v>9.4457107899085683e-05</v>
       </c>
       <c r="I3" s="0">
         <v>3</v>
@@ -2855,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="0">
-        <v>9.2576359649392764e-08</v>
+        <v>9.2576233929575786e-05</v>
       </c>
       <c r="I4" s="0">
         <v>4.25</v>
@@ -2881,7 +4321,7 @@
         <v>4.25</v>
       </c>
       <c r="G5" s="0">
-        <v>7.0414160040286206e-08</v>
+        <v>7.041418032896909e-05</v>
       </c>
       <c r="I5" s="0">
         <v>10</v>
@@ -2908,7 +4348,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -2917,28 +4357,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>384</v>
+        <v>864</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>385</v>
+        <v>865</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>386</v>
+        <v>866</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>387</v>
+        <v>867</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>388</v>
+        <v>868</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>389</v>
+        <v>869</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>390</v>
+        <v>870</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>391</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2">
@@ -2952,7 +4392,7 @@
         <v>1.25</v>
       </c>
       <c r="G2" s="0">
-        <v>6.4655955963909581e-07</v>
+        <v>0.00064655906027893289</v>
       </c>
       <c r="I2" s="0">
         <v>1.25</v>
@@ -2978,7 +4418,7 @@
         <v>2.5</v>
       </c>
       <c r="G3" s="0">
-        <v>7.1053992584166125e-08</v>
+        <v>7.1053978462135641e-05</v>
       </c>
       <c r="I3" s="0">
         <v>2.75</v>
@@ -3004,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="0">
-        <v>6.6526678273394899e-08</v>
+        <v>6.652656929932351e-05</v>
       </c>
       <c r="I4" s="0">
         <v>4</v>
@@ -3030,7 +4470,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="0">
-        <v>6.4944581210912573e-08</v>
+        <v>6.4944510059782178e-05</v>
       </c>
       <c r="I5" s="0">
         <v>10</v>
@@ -3057,7 +4497,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -3066,28 +4506,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>392</v>
+        <v>872</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>393</v>
+        <v>873</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>394</v>
+        <v>874</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>395</v>
+        <v>875</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>396</v>
+        <v>876</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>397</v>
+        <v>877</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>398</v>
+        <v>878</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>399</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2">
@@ -3101,7 +4541,7 @@
         <v>1.25</v>
       </c>
       <c r="G2" s="0">
-        <v>6.0112267711222058e-07</v>
+        <v>0.00060112207855006429</v>
       </c>
       <c r="I2" s="0">
         <v>1.25</v>
@@ -3127,7 +4567,7 @@
         <v>0.75</v>
       </c>
       <c r="G3" s="0">
-        <v>2.9975685735351705e-07</v>
+        <v>0.00029975636357214383</v>
       </c>
       <c r="I3" s="0">
         <v>2.75</v>
@@ -3153,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="0">
-        <v>7.2975380720539223e-08</v>
+        <v>7.2975277570643755e-05</v>
       </c>
       <c r="I4" s="0">
         <v>4</v>
@@ -3179,7 +4619,7 @@
         <v>3.25</v>
       </c>
       <c r="G5" s="0">
-        <v>6.5180346752467585e-08</v>
+        <v>6.518021442721475e-05</v>
       </c>
       <c r="I5" s="0">
         <v>4.5</v>
@@ -3206,7 +4646,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -3215,28 +4655,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>400</v>
+        <v>880</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>401</v>
+        <v>881</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>402</v>
+        <v>882</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>403</v>
+        <v>883</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>404</v>
+        <v>884</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>405</v>
+        <v>885</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>406</v>
+        <v>886</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>407</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2">
@@ -3250,7 +4690,7 @@
         <v>1.25</v>
       </c>
       <c r="G2" s="0">
-        <v>9.9673051678600854e-07</v>
+        <v>0.00099672995084647492</v>
       </c>
       <c r="I2" s="0">
         <v>1.25</v>
@@ -3276,7 +4716,7 @@
         <v>2.5</v>
       </c>
       <c r="G3" s="0">
-        <v>1.8714792448623309e-07</v>
+        <v>0.00018714776844947588</v>
       </c>
       <c r="I3" s="0">
         <v>2.5</v>
@@ -3302,7 +4742,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="0">
-        <v>1.1776997652954988e-07</v>
+        <v>0.0001177698974415943</v>
       </c>
       <c r="I4" s="0">
         <v>4.25</v>
@@ -3328,7 +4768,7 @@
         <v>4.25</v>
       </c>
       <c r="G5" s="0">
-        <v>8.6573928759457571e-08</v>
+        <v>8.6573970664947074e-05</v>
       </c>
       <c r="I5" s="0">
         <v>10</v>
@@ -3355,7 +4795,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -3364,28 +4804,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>408</v>
+        <v>888</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>409</v>
+        <v>889</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>410</v>
+        <v>890</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>411</v>
+        <v>891</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>412</v>
+        <v>892</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>413</v>
+        <v>893</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>414</v>
+        <v>894</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>415</v>
+        <v>895</v>
       </c>
     </row>
     <row r="2">
@@ -3399,7 +4839,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="0">
-        <v>7.9615876738198722e-07</v>
+        <v>0.00079600296970043353</v>
       </c>
       <c r="I2" s="0">
         <v>2.75</v>
@@ -3425,7 +4865,7 @@
         <v>3.75</v>
       </c>
       <c r="G3" s="0">
-        <v>5.7275812674416131e-07</v>
+        <v>0.00057260188241290355</v>
       </c>
       <c r="I3" s="0">
         <v>6</v>
@@ -3451,7 +4891,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="0">
-        <v>1.3798290108497041e-07</v>
+        <v>0.00013792974433307956</v>
       </c>
       <c r="I4" s="0">
         <v>15.25</v>
@@ -3477,7 +4917,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="0">
-        <v>1.3759950851056012e-07</v>
+        <v>0.00013757948323099575</v>
       </c>
       <c r="I5" s="0">
         <v>8.75</v>
@@ -3504,7 +4944,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.7109375" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -3513,28 +4953,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>416</v>
+        <v>896</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>417</v>
+        <v>897</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>418</v>
+        <v>898</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>419</v>
+        <v>899</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>420</v>
+        <v>900</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>421</v>
+        <v>901</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>422</v>
+        <v>902</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>423</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2">
@@ -3548,7 +4988,7 @@
         <v>9.75</v>
       </c>
       <c r="G2" s="0">
-        <v>2.263933813499985e-07</v>
+        <v>0.00022636380365497085</v>
       </c>
       <c r="I2" s="0">
         <v>2.75</v>
@@ -3574,7 +5014,7 @@
         <v>31.5</v>
       </c>
       <c r="G3" s="0">
-        <v>5.2913354009970788e-08</v>
+        <v>5.2903005398989779e-05</v>
       </c>
       <c r="I3" s="0">
         <v>4.75</v>
@@ -3600,7 +5040,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="0">
-        <v>5.1222792602970516e-08</v>
+        <v>5.1212559327530625e-05</v>
       </c>
       <c r="I4" s="0">
         <v>6.25</v>
@@ -3626,7 +5066,7 @@
         <v>33.75</v>
       </c>
       <c r="G5" s="0">
-        <v>5.0382488602573241e-08</v>
+        <v>5.0372326098251787e-05</v>
       </c>
       <c r="I5" s="0">
         <v>9.5</v>
@@ -3653,7 +5093,7 @@
     <col min="3" max="3" width="10.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="10.42578125" customWidth="true"/>
-    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.7109375" customWidth="true"/>
     <col min="9" max="9" width="10.42578125" customWidth="true"/>
     <col min="10" max="10" width="15.5703125" customWidth="true"/>
     <col min="12" max="12" width="10.42578125" customWidth="true"/>
@@ -3662,28 +5102,28 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>424</v>
+        <v>904</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>425</v>
+        <v>905</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>426</v>
+        <v>906</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>427</v>
+        <v>907</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>428</v>
+        <v>908</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>429</v>
+        <v>909</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>430</v>
+        <v>910</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>431</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2">
@@ -3697,7 +5137,7 @@
         <v>9.75</v>
       </c>
       <c r="G2" s="0">
-        <v>2.4855080884451155e-07</v>
+        <v>0.00024851398234031522</v>
       </c>
       <c r="I2" s="0">
         <v>2.5</v>
@@ -3723,7 +5163,7 @@
         <v>42.75</v>
       </c>
       <c r="G3" s="0">
-        <v>3.7610584283761541e-08</v>
+        <v>3.7603469773412837e-05</v>
       </c>
       <c r="I3" s="0">
         <v>4.75</v>
@@ -3749,7 +5189,7 @@
         <v>49.25</v>
       </c>
       <c r="G4" s="0">
-        <v>3.2359059962383741e-08</v>
+        <v>3.2353035838720236e-05</v>
       </c>
       <c r="I4" s="0">
         <v>6.25</v>
@@ -3775,7 +5215,7 @@
         <v>53</v>
       </c>
       <c r="G5" s="0">
-        <v>3.0197633768447198e-08</v>
+        <v>3.0191958129562146e-05</v>
       </c>
       <c r="I5" s="0">
         <v>9.5</v>
